--- a/2024/shuffle-architecute/Teste10/content/results/metrics_3_8.xlsx
+++ b/2024/shuffle-architecute/Teste10/content/results/metrics_3_8.xlsx
@@ -492,34 +492,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9578486810833809</v>
+        <v>0.9856442068019874</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7483602704669645</v>
+        <v>0.8057010893285452</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8533738351197985</v>
+        <v>0.9916604020163564</v>
       </c>
       <c r="E2" t="n">
-        <v>0.90369015159818</v>
+        <v>0.08768383779973044</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8790841644724947</v>
+        <v>0.9686977300698878</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1769000589847565</v>
+        <v>0.06024818867444992</v>
       </c>
       <c r="H2" t="n">
-        <v>1.682716012001038</v>
+        <v>1.299277782440186</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6277874708175659</v>
+        <v>0.02043821662664413</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1944781690835953</v>
+        <v>0.08426808565855026</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4111330509185791</v>
+        <v>0.0523531511425972</v>
       </c>
     </row>
     <row r="3">
@@ -529,34 +529,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9577439888292462</v>
+        <v>0.9855024229002465</v>
       </c>
       <c r="C3" t="n">
-        <v>0.748308433303867</v>
+        <v>0.8056179555708737</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8535761062140942</v>
+        <v>0.9919539877540375</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9047494572199906</v>
+        <v>0.09934430139837813</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8795260956013513</v>
+        <v>0.9692348188770279</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1773394197225571</v>
+        <v>0.06084322929382324</v>
       </c>
       <c r="H3" t="n">
-        <v>1.683062672615051</v>
+        <v>1.299833536148071</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6269214749336243</v>
+        <v>0.01971871219575405</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1923391222953796</v>
+        <v>0.08319104462862015</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4096303880214691</v>
+        <v>0.05145487561821938</v>
       </c>
     </row>
     <row r="4">
@@ -566,34 +566,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9576329457540963</v>
+        <v>0.9853575140817836</v>
       </c>
       <c r="C4" t="n">
-        <v>0.748252895827328</v>
+        <v>0.8055310504095938</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8537705729676415</v>
+        <v>0.992248721046024</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9058004948792928</v>
+        <v>0.1112948757039918</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8799606808512108</v>
+        <v>0.969780753972759</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1778054386377335</v>
+        <v>0.06145137920975685</v>
       </c>
       <c r="H4" t="n">
-        <v>1.683434009552002</v>
+        <v>1.300414800643921</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6260889172554016</v>
+        <v>0.01899639703333378</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1902167648077011</v>
+        <v>0.0820871964097023</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4081527590751648</v>
+        <v>0.05054179579019547</v>
       </c>
     </row>
     <row r="5">
@@ -603,34 +603,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9575153982606486</v>
+        <v>0.985209312834603</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7481936124363873</v>
+        <v>0.8054402364580956</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8539574137467273</v>
+        <v>0.9925443543265228</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9068422864333392</v>
+        <v>0.1235208977630611</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8803876457814853</v>
+        <v>0.9703349746701396</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1782987713813782</v>
+        <v>0.06207334622740746</v>
       </c>
       <c r="H5" t="n">
-        <v>1.683830499649048</v>
+        <v>1.301022052764893</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6252888441085815</v>
+        <v>0.01827187463641167</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1881130784749985</v>
+        <v>0.08095791935920715</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4067009687423706</v>
+        <v>0.04961485788226128</v>
       </c>
     </row>
     <row r="6">
@@ -640,34 +640,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9573911295928791</v>
+        <v>0.9850577115343657</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7481304675129906</v>
+        <v>0.8053453729939577</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8541361686599833</v>
+        <v>0.9928405877062426</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9078740795888035</v>
+        <v>0.1360236304498701</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8808065752796543</v>
+        <v>0.9708972082137781</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1788203120231628</v>
+        <v>0.06270959228277206</v>
       </c>
       <c r="H6" t="n">
-        <v>1.684252738952637</v>
+        <v>1.301656365394592</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6245235800743103</v>
+        <v>0.01754588447511196</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1860295683145523</v>
+        <v>0.07980307191610336</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4052765667438507</v>
+        <v>0.04867452383041382</v>
       </c>
     </row>
     <row r="7">
@@ -677,34 +677,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9572599690994688</v>
+        <v>0.9849025277149897</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7480633644501978</v>
+        <v>0.805246302520038</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8543066230153057</v>
+        <v>0.9931370496954723</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9088950852707565</v>
+        <v>0.1487922246408313</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8812170738688058</v>
+        <v>0.9714670085329447</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1793707609176636</v>
+        <v>0.06336086243391037</v>
       </c>
       <c r="H7" t="n">
-        <v>1.684701442718506</v>
+        <v>1.302318811416626</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6237937808036804</v>
+        <v>0.01681932993233204</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1839678585529327</v>
+        <v>0.07862366735935211</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4038808047771454</v>
+        <v>0.04772152751684189</v>
       </c>
     </row>
     <row r="8">
@@ -714,34 +714,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.957121738296669</v>
+        <v>0.9847436420775723</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7479922055471901</v>
+        <v>0.805142912082478</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8544687503296513</v>
+        <v>0.9934333814044171</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9099043121775144</v>
+        <v>0.1618101041657055</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8816187695722737</v>
+        <v>0.9720436074099416</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1799508929252625</v>
+        <v>0.06402766704559326</v>
       </c>
       <c r="H8" t="n">
-        <v>1.685177326202393</v>
+        <v>1.303010225296021</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6230996251106262</v>
+        <v>0.01609309762716293</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1819299310445786</v>
+        <v>0.07742124795913696</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4025149941444397</v>
+        <v>0.04675716534256935</v>
       </c>
     </row>
     <row r="9">
@@ -751,34 +751,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.956976122175238</v>
+        <v>0.9845808032200597</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7479169352578565</v>
+        <v>0.8050350054319625</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8546220622165501</v>
+        <v>0.9937290969406375</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9109005874054339</v>
+        <v>0.1750727683018709</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8820112186672401</v>
+        <v>0.9726265043730473</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1805620044469833</v>
+        <v>0.0647110641002655</v>
       </c>
       <c r="H9" t="n">
-        <v>1.685680627822876</v>
+        <v>1.303731918334961</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6224431991577148</v>
+        <v>0.01536837499588728</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1799181550741196</v>
+        <v>0.07619621604681015</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4011805951595306</v>
+        <v>0.04578226804733276</v>
       </c>
     </row>
     <row r="10">
@@ -788,34 +788,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9568229915744293</v>
+        <v>0.9844138812224068</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7478374522037514</v>
+        <v>0.8049224609778824</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8547664649249413</v>
+        <v>0.9940236648097353</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9118829951833926</v>
+        <v>0.1885624775727367</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8823938266137465</v>
+        <v>0.9732148042703673</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1812046617269516</v>
+        <v>0.06541160494089127</v>
       </c>
       <c r="H10" t="n">
-        <v>1.686212182044983</v>
+        <v>1.304484367370605</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6218249201774597</v>
+        <v>0.01464646589010954</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1779343783855438</v>
+        <v>0.0749502032995224</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3998796343803406</v>
+        <v>0.04479833692312241</v>
       </c>
     </row>
     <row r="11">
@@ -825,34 +825,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.956662133896874</v>
+        <v>0.9842426157807056</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7477536334744375</v>
+        <v>0.8048051032244101</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8549018182632742</v>
+        <v>0.9943165655234526</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9128506793878643</v>
+        <v>0.2022555196861133</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8827663681073048</v>
+        <v>0.9738075300635723</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1818797737360001</v>
+        <v>0.0661303699016571</v>
       </c>
       <c r="H11" t="n">
-        <v>1.686772584915161</v>
+        <v>1.305269241333008</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6212454438209534</v>
+        <v>0.01392864063382149</v>
       </c>
       <c r="J11" t="n">
-        <v>0.175980344414711</v>
+        <v>0.0736854150891304</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3986129462718964</v>
+        <v>0.04380699992179871</v>
       </c>
     </row>
     <row r="12">
@@ -862,34 +862,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9564932593141087</v>
+        <v>0.9840667926524005</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7476653911946216</v>
+        <v>0.8046827643093334</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8550276533402961</v>
+        <v>0.994607045681607</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9138024274258091</v>
+        <v>0.2161368913930249</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8831282069817927</v>
+        <v>0.9744036461283153</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1825884878635406</v>
+        <v>0.06686826050281525</v>
       </c>
       <c r="H12" t="n">
-        <v>1.687362670898438</v>
+        <v>1.306087255477905</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6207066178321838</v>
+        <v>0.01321674790233374</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1740584969520569</v>
+        <v>0.07240323722362518</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3973826766014099</v>
+        <v>0.04280998930335045</v>
       </c>
     </row>
     <row r="13">
@@ -899,34 +899,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.95631622886951</v>
+        <v>0.9838861304731586</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7475726452710466</v>
+        <v>0.804555267571489</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8551441599964665</v>
+        <v>0.994894482514628</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9147370569378502</v>
+        <v>0.2301792115120201</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8834791757136999</v>
+        <v>0.9750019850945769</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1833314448595047</v>
+        <v>0.0676264688372612</v>
       </c>
       <c r="H13" t="n">
-        <v>1.687982797622681</v>
+        <v>1.306939840316772</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6202077865600586</v>
+        <v>0.01251231506466866</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1721712052822113</v>
+        <v>0.0711061879992485</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3961893022060394</v>
+        <v>0.04180926829576492</v>
       </c>
     </row>
     <row r="14">
@@ -936,34 +936,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9561306888862084</v>
+        <v>0.9837003858718003</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7474752617854697</v>
+        <v>0.8044224315912016</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8552504940100112</v>
+        <v>0.9951779272998782</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9156532055012231</v>
+        <v>0.2443543905429377</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8838181638027263</v>
+        <v>0.9756010750729446</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1841101050376892</v>
+        <v>0.06840599328279495</v>
       </c>
       <c r="H14" t="n">
-        <v>1.688634157180786</v>
+        <v>1.307828187942505</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6197525262832642</v>
+        <v>0.01181766297668219</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1703212112188339</v>
+        <v>0.0697968602180481</v>
       </c>
       <c r="K14" t="n">
-        <v>0.3950366973876953</v>
+        <v>0.04080728814005852</v>
       </c>
     </row>
     <row r="15">
@@ -973,34 +973,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9559364917664855</v>
+        <v>0.9835092502394844</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7473731614996098</v>
+        <v>0.8042840854039597</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8553468974805364</v>
+        <v>0.9954564762872775</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9165500180463417</v>
+        <v>0.2586341499325796</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8841450848878216</v>
+        <v>0.9761995034256256</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1849250942468643</v>
+        <v>0.06920814514160156</v>
       </c>
       <c r="H15" t="n">
-        <v>1.689316868782043</v>
+        <v>1.308753132820129</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6193398237228394</v>
+        <v>0.01113501098006964</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1685102880001068</v>
+        <v>0.06847787648439407</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3939251005649567</v>
+        <v>0.03980641439557076</v>
       </c>
     </row>
     <row r="16">
@@ -1010,34 +1010,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9557333582385701</v>
+        <v>0.9833123703459843</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7472662300168031</v>
+        <v>0.8041400460353465</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8554330090531714</v>
+        <v>0.9957291680592681</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9174259336250884</v>
+        <v>0.272980689156477</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8844594188628793</v>
+        <v>0.9767954263396587</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1857776194810867</v>
+        <v>0.07003440707921982</v>
       </c>
       <c r="H16" t="n">
-        <v>1.690032005310059</v>
+        <v>1.309716463088989</v>
       </c>
       <c r="I16" t="n">
-        <v>0.618971049785614</v>
+        <v>0.01046671345829964</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1667415499687195</v>
+        <v>0.0671527311205864</v>
       </c>
       <c r="K16" t="n">
-        <v>0.3928562998771667</v>
+        <v>0.03880973160266876</v>
       </c>
     </row>
     <row r="17">
@@ -1047,34 +1047,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9555210513818018</v>
+        <v>0.9831094092189921</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7471543500937163</v>
+        <v>0.8039900961216033</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8555086303226123</v>
+        <v>0.995994683329791</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9182797329469499</v>
+        <v>0.2873547708870835</v>
       </c>
       <c r="F17" t="n">
-        <v>0.884760669165103</v>
+        <v>0.9773868800023263</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1866686195135117</v>
+        <v>0.07088619470596313</v>
       </c>
       <c r="H17" t="n">
-        <v>1.690780162811279</v>
+        <v>1.310719132423401</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6186473369598389</v>
+        <v>0.00981600396335125</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1650174856185913</v>
+        <v>0.06582504510879517</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3918319940567017</v>
+        <v>0.03782052174210548</v>
       </c>
     </row>
     <row r="18">
@@ -1084,34 +1084,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.955299291957211</v>
+        <v>0.9828999800447663</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7470374264386086</v>
+        <v>0.8038340593664599</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8555737630290178</v>
+        <v>0.9962518369941775</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9191100266569424</v>
+        <v>0.3017115567855586</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8850480923079241</v>
+        <v>0.9779717449457745</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1875993013381958</v>
+        <v>0.07176512479782104</v>
       </c>
       <c r="H18" t="n">
-        <v>1.691561937332153</v>
+        <v>1.311762571334839</v>
       </c>
       <c r="I18" t="n">
-        <v>0.61836838722229</v>
+        <v>0.009185786359012127</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1633408665657043</v>
+        <v>0.06449894607067108</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3908547461032867</v>
+        <v>0.03684233501553535</v>
       </c>
     </row>
     <row r="19">
@@ -1121,34 +1121,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9550678174384645</v>
+        <v>0.9826836501405373</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7469153650595518</v>
+        <v>0.8036717446012809</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8556277782408969</v>
+        <v>0.9964991577123357</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9199153345747805</v>
+        <v>0.3160059438388103</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8853212302756799</v>
+        <v>0.9785476364532681</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1885707527399063</v>
+        <v>0.0726730152964592</v>
       </c>
       <c r="H19" t="n">
-        <v>1.692378163337708</v>
+        <v>1.312847852706909</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6181371212005615</v>
+        <v>0.008579667657613754</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1617147177457809</v>
+        <v>0.06317861378192902</v>
       </c>
       <c r="K19" t="n">
-        <v>0.389926016330719</v>
+        <v>0.03587915375828743</v>
       </c>
     </row>
     <row r="20">
@@ -1158,34 +1158,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9548263924493491</v>
+        <v>0.9824600045721753</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7467880354890585</v>
+        <v>0.8035029143114857</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8556708821806739</v>
+        <v>0.9967350273272402</v>
       </c>
       <c r="E20" t="n">
-        <v>0.920694225395968</v>
+        <v>0.3301814480409506</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8855796181071673</v>
+        <v>0.9791118829554061</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1895839720964432</v>
+        <v>0.07361160218715668</v>
       </c>
       <c r="H20" t="n">
-        <v>1.693229675292969</v>
+        <v>1.313976883888245</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6179525852203369</v>
+        <v>0.008001610636711121</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1601419001817703</v>
+        <v>0.06186925992369652</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3890474438667297</v>
+        <v>0.03493544831871986</v>
       </c>
     </row>
     <row r="21">
@@ -1195,34 +1195,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9545747294717958</v>
+        <v>0.9822284974131394</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7466553387061912</v>
+        <v>0.8033274129594705</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8557026279401972</v>
+        <v>0.996957683483483</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9214451185997318</v>
+        <v>0.3441819244212032</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8858226387679297</v>
+        <v>0.979661596588273</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1906401515007019</v>
+        <v>0.07458319514989853</v>
       </c>
       <c r="H21" t="n">
-        <v>1.694116950035095</v>
+        <v>1.315150499343872</v>
       </c>
       <c r="I21" t="n">
-        <v>0.617816686630249</v>
+        <v>0.007455937564373016</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1586256176233292</v>
+        <v>0.06057607755064964</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3882211446762085</v>
+        <v>0.03401605039834976</v>
       </c>
     </row>
     <row r="22">
@@ -1232,34 +1232,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9543125122738203</v>
+        <v>0.9819886648864811</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7465171576815079</v>
+        <v>0.8031449988555447</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8557229786498504</v>
+        <v>0.9971652391773317</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9221663310385717</v>
+        <v>0.3579434509970476</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8860495820677819</v>
+        <v>0.9801936938270979</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1917406022548676</v>
+        <v>0.07558971643447876</v>
       </c>
       <c r="H22" t="n">
-        <v>1.695040941238403</v>
+        <v>1.316370248794556</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6177295446395874</v>
+        <v>0.00694727199152112</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1571692824363708</v>
+        <v>0.05930496007204056</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3874495029449463</v>
+        <v>0.0331261157989502</v>
       </c>
     </row>
     <row r="23">
@@ -1269,34 +1269,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.954039492008518</v>
+        <v>0.9817399036862575</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7463733826411612</v>
+        <v>0.8029554899942534</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8557315704124993</v>
+        <v>0.9973555170607038</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9228563160403023</v>
+        <v>0.3713957529737604</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8862600174356551</v>
+        <v>0.9807045680851642</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1928864270448685</v>
+        <v>0.07663372159004211</v>
       </c>
       <c r="H23" t="n">
-        <v>1.69600236415863</v>
+        <v>1.31763756275177</v>
       </c>
       <c r="I23" t="n">
-        <v>0.617692768573761</v>
+        <v>0.006480949465185404</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1557759940624237</v>
+        <v>0.05806241184473038</v>
       </c>
       <c r="K23" t="n">
-        <v>0.3867340087890625</v>
+        <v>0.03227167576551437</v>
       </c>
     </row>
     <row r="24">
@@ -1306,34 +1306,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.953755366216953</v>
+        <v>0.981481619134196</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7462238915833005</v>
+        <v>0.8027586638803954</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8557284730112344</v>
+        <v>0.9975262158630834</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9235133509517905</v>
+        <v>0.3844660200403106</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8864530547810117</v>
+        <v>0.98119055380147</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1940788477659225</v>
+        <v>0.07771767675876617</v>
       </c>
       <c r="H24" t="n">
-        <v>1.697002053260803</v>
+        <v>1.3189537525177</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6177060008049011</v>
+        <v>0.006062611006200314</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1544492542743683</v>
+        <v>0.05685514584183693</v>
       </c>
       <c r="K24" t="n">
-        <v>0.3860776424407959</v>
+        <v>0.03145886212587357</v>
       </c>
     </row>
     <row r="25">
@@ -1343,34 +1343,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9534598605344116</v>
+        <v>0.9812131755872879</v>
       </c>
       <c r="C25" t="n">
-        <v>0.746068552181559</v>
+        <v>0.8025542888387904</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8557133497253097</v>
+        <v>0.9976747708308953</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9241357440498884</v>
+        <v>0.3970774683059288</v>
       </c>
       <c r="F25" t="n">
-        <v>0.886628376202146</v>
+        <v>0.9816476449444168</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1953189969062805</v>
+        <v>0.07884428650140762</v>
       </c>
       <c r="H25" t="n">
-        <v>1.698040723800659</v>
+        <v>1.32032036781311</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6177708506584167</v>
+        <v>0.00569854024797678</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1531924605369568</v>
+        <v>0.05569026246666908</v>
       </c>
       <c r="K25" t="n">
-        <v>0.3854815363883972</v>
+        <v>0.030694380402565</v>
       </c>
     </row>
     <row r="26">
@@ -1380,34 +1380,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9531526315389838</v>
+        <v>0.9809338980422783</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7459072861805064</v>
+        <v>0.8023422014835322</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8556860797632265</v>
+        <v>0.9977984783032779</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9247214914290309</v>
+        <v>0.4091446753770452</v>
       </c>
       <c r="F26" t="n">
-        <v>0.886785115857727</v>
+        <v>0.9820714889939313</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1966083496809006</v>
+        <v>0.08001634478569031</v>
       </c>
       <c r="H26" t="n">
-        <v>1.699119091033936</v>
+        <v>1.321738719940186</v>
       </c>
       <c r="I26" t="n">
-        <v>0.617887556552887</v>
+        <v>0.005395365413278341</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1520096659660339</v>
+        <v>0.05457564815878868</v>
       </c>
       <c r="K26" t="n">
-        <v>0.3849485814571381</v>
+        <v>0.02998549677431583</v>
       </c>
     </row>
   </sheetData>
